--- a/Proposed/Adding_An_Index/PIP_TEMPLATE/Set_Drop.xlsx
+++ b/Proposed/Adding_An_Index/PIP_TEMPLATE/Set_Drop.xlsx
@@ -519,10 +519,10 @@
         <v>2.641E-5</v>
       </c>
       <c r="D2" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E2" s="5">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="F2" s="4">
         <f>0.2/(A2*3)</f>
@@ -634,12 +634,12 @@
     </row>
     <row r="12">
       <c r="A12" s="12">
-        <f>D2+(F2*A2)</f>
-        <v>0.4666666667</v>
+        <f>IF(D2+(F2*A2)&lt;=E2,D2+(F2*A2),E2)</f>
+        <v>0.8666666667</v>
       </c>
       <c r="B12" s="12">
         <f>E2-(F2*A2)</f>
-        <v>0.5333333333</v>
+        <v>0.8833333333</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -675,7 +675,7 @@
     <row r="16">
       <c r="A16" s="12">
         <f>C8/A12</f>
-        <v>4047.501277</v>
+        <v>2179.423765</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -704,7 +704,7 @@
     <row r="19">
       <c r="A19" s="12">
         <f>A16/A2</f>
-        <v>1.12430591</v>
+        <v>0.6053954901</v>
       </c>
       <c r="B19" s="12" t="str">
         <f>CONCATENATE(B2, " Tokens per a second")</f>
@@ -736,7 +736,7 @@
     <row r="22">
       <c r="A22" s="13">
         <f>A19*(10^B4)</f>
-        <v>1.12431E+18</v>
+        <v>6.05395E+17</v>
       </c>
       <c r="B22" s="12" t="str">
         <f>B19</f>

--- a/Proposed/Adding_An_Index/PIP_TEMPLATE/Set_Drop.xlsx
+++ b/Proposed/Adding_An_Index/PIP_TEMPLATE/Set_Drop.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Target Frequency In Seconds. How often do you want audits?</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Reward Token Decimal</t>
+  </si>
+  <si>
+    <t>Floor Goes up this amount each Target Frequency</t>
   </si>
   <si>
     <t>Transaction Cost GWEI</t>
@@ -207,14 +210,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -457,7 +460,7 @@
     <col customWidth="1" min="3" max="3" width="27.0"/>
     <col customWidth="1" min="4" max="4" width="16.57"/>
     <col customWidth="1" min="5" max="5" width="17.29"/>
-    <col customWidth="1" min="6" max="6" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="25.57"/>
     <col customWidth="1" min="7" max="7" width="27.29"/>
     <col customWidth="1" min="8" max="8" width="16.57"/>
   </cols>
@@ -509,7 +512,7 @@
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <f>60*60</f>
+        <f>3600</f>
         <v>3600</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -525,8 +528,8 @@
         <v>0.95</v>
       </c>
       <c r="F2" s="4">
-        <f>0.2/(A2*3)</f>
-        <v>0.00001851851852</v>
+        <f>0.00001</f>
+        <v>0.00001</v>
       </c>
       <c r="G2" s="7">
         <v>422000.0</v>
@@ -554,7 +557,9 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="9"/>
@@ -562,7 +567,10 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="10">
+        <f>F2*A2</f>
+        <v>0.036</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="9"/>
@@ -574,12 +582,12 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="str">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="str">
         <f>CONCATENATE("Transaction Cost in " ,B2)</f>
         <v>Transaction Cost in VOL</v>
       </c>
@@ -588,15 +596,15 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <f>G2*H2</f>
         <v>49884104.07</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <f>A8*10^-9</f>
         <v>0.04988410407</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>B8/C2</f>
         <v>1888.833929</v>
       </c>
@@ -622,24 +630,24 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="12">
+      <c r="A12" s="10">
         <f>IF(D2+(F2*A2)&lt;=E2,D2+(F2*A2),E2)</f>
-        <v>0.8666666667</v>
-      </c>
-      <c r="B12" s="12">
+        <v>0.836</v>
+      </c>
+      <c r="B12" s="10">
         <f>E2-(F2*A2)</f>
-        <v>0.8833333333</v>
+        <v>0.914</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -664,7 +672,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -673,9 +681,9 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="12">
+      <c r="A16" s="10">
         <f>C8/A12</f>
-        <v>2179.423765</v>
+        <v>2259.370729</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -693,7 +701,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -702,11 +710,11 @@
       <c r="F18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <f>A16/A2</f>
-        <v>0.6053954901</v>
-      </c>
-      <c r="B19" s="12" t="str">
+        <v>0.6276029802</v>
+      </c>
+      <c r="B19" s="10" t="str">
         <f>CONCATENATE(B2, " Tokens per a second")</f>
         <v>VOL Tokens per a second</v>
       </c>
@@ -725,7 +733,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -736,9 +744,9 @@
     <row r="22">
       <c r="A22" s="13">
         <f>A19*(10^B4)</f>
-        <v>6.05395E+17</v>
-      </c>
-      <c r="B22" s="12" t="str">
+        <v>6.27603E+17</v>
+      </c>
+      <c r="B22" s="10" t="str">
         <f>B19</f>
         <v>VOL Tokens per a second</v>
       </c>
@@ -8604,23 +8612,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -8966,10 +8974,10 @@
     </row>
     <row r="37">
       <c r="C37" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
